--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk1-Kremen1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Dkk1-Kremen1.xlsx
@@ -537,7 +537,7 @@
         <v>0.03046</v>
       </c>
       <c r="H2">
-        <v>0.09137999999999999</v>
+        <v>0.09138</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.238669333333334</v>
+        <v>3.636278</v>
       </c>
       <c r="N2">
-        <v>9.716008</v>
+        <v>10.908834</v>
       </c>
       <c r="O2">
-        <v>0.1133140796744973</v>
+        <v>0.1254799416243108</v>
       </c>
       <c r="P2">
-        <v>0.1133140796744973</v>
+        <v>0.1254799416243107</v>
       </c>
       <c r="Q2">
-        <v>0.09864986789333334</v>
+        <v>0.11076102788</v>
       </c>
       <c r="R2">
-        <v>0.8878488110399999</v>
+        <v>0.9968492509200001</v>
       </c>
       <c r="S2">
-        <v>0.1133140796744973</v>
+        <v>0.1254799416243108</v>
       </c>
       <c r="T2">
-        <v>0.1133140796744973</v>
+        <v>0.1254799416243107</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,7 +599,7 @@
         <v>0.03046</v>
       </c>
       <c r="H3">
-        <v>0.09137999999999999</v>
+        <v>0.09138</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>53.956206</v>
       </c>
       <c r="O3">
-        <v>0.6292705631384401</v>
+        <v>0.620636594080475</v>
       </c>
       <c r="P3">
-        <v>0.6292705631384401</v>
+        <v>0.620636594080475</v>
       </c>
       <c r="Q3">
-        <v>0.54783534492</v>
+        <v>0.5478353449200001</v>
       </c>
       <c r="R3">
         <v>4.93051810428</v>
       </c>
       <c r="S3">
-        <v>0.6292705631384401</v>
+        <v>0.620636594080475</v>
       </c>
       <c r="T3">
-        <v>0.6292705631384401</v>
+        <v>0.620636594080475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,7 +661,7 @@
         <v>0.03046</v>
       </c>
       <c r="H4">
-        <v>0.09137999999999999</v>
+        <v>0.09138</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>22.071835</v>
       </c>
       <c r="O4">
-        <v>0.2574153571870626</v>
+        <v>0.2538834642952142</v>
       </c>
       <c r="P4">
-        <v>0.2574153571870626</v>
+        <v>0.2538834642952141</v>
       </c>
       <c r="Q4">
-        <v>0.2241026980333333</v>
+        <v>0.2241026980333334</v>
       </c>
       <c r="R4">
         <v>2.0169242823</v>
       </c>
       <c r="S4">
-        <v>0.2574153571870626</v>
+        <v>0.2538834642952142</v>
       </c>
       <c r="T4">
-        <v>0.2574153571870626</v>
+        <v>0.2538834642952141</v>
       </c>
     </row>
   </sheetData>
